--- a/data/zenodo_ivan/conversion/passenger/CHE_convpass_HEVd.xlsx
+++ b/data/zenodo_ivan/conversion/passenger/CHE_convpass_HEVd.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ruiziv/Downloads/passenger data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ruiziv/switchdrive/ACCURACY/RESTORE/data/zenodo_ivan/conversion/passenger/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{847A3EA1-DFEF-AC4A-BC74-C4D09BFB5582}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2FE271F-D635-984E-B34B-B19A3D3A6ED7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8280" yWindow="500" windowWidth="21600" windowHeight="19900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38400" yWindow="-4880" windowWidth="21600" windowHeight="37900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1845" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1843" uniqueCount="93">
   <si>
     <t>Name:</t>
   </si>
@@ -179,18 +179,6 @@
     <t>vkm/h</t>
   </si>
   <si>
-    <t>Speed limit built area</t>
-  </si>
-  <si>
-    <t>Speed limit expressway</t>
-  </si>
-  <si>
-    <t>Swiss confederation</t>
-  </si>
-  <si>
-    <t>https://www.ch.ch/en/vehicles-and-traffic/how-to-behave-in-road-traffic/traffic-regulations/driving-over-the-speed-limit/</t>
-  </si>
-  <si>
     <t>Mvkm/unit</t>
   </si>
   <si>
@@ -316,6 +304,15 @@
   <si>
     <t>On average, HEVs use 74.2% of the energy of a conventional counterpart.</t>
   </si>
+  <si>
+    <t>Federal Office of Spatial Development, Mobility and Transport Microcensus 2021</t>
+  </si>
+  <si>
+    <t>https://www.are.admin.ch/are/en/home/mobility/data/mtmc.html</t>
+  </si>
+  <si>
+    <t>Table G3.3.1.6</t>
+  </si>
 </sst>
 </file>
 
@@ -418,7 +415,18 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -754,9 +762,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L431"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A322" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J352" sqref="J352:L364"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K15" sqref="K15:L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -777,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -839,7 +847,7 @@
         <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C6" t="s">
         <v>29</v>
@@ -861,7 +869,7 @@
         <v>conv_pass_HEVd</v>
       </c>
       <c r="C7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D7" t="s">
         <v>30</v>
@@ -890,7 +898,7 @@
         <v>39</v>
       </c>
       <c r="F8" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -913,7 +921,7 @@
         <v>39</v>
       </c>
       <c r="F9" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -936,7 +944,7 @@
         <v>39</v>
       </c>
       <c r="F10" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -965,11 +973,11 @@
         <v>43</v>
       </c>
       <c r="J11" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K11" s="2"/>
       <c r="L11" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -991,16 +999,16 @@
         <v>1.1307368766878999E-2</v>
       </c>
       <c r="H12" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="J12" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="L12" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -1050,22 +1058,22 @@
         <v>35</v>
       </c>
       <c r="F14" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G14">
-        <v>50</v>
+        <v>38.1</v>
       </c>
       <c r="H14" t="s">
         <v>47</v>
       </c>
       <c r="J14" t="s">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="L14" t="s">
-        <v>48</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
@@ -1084,23 +1092,18 @@
         <v>35</v>
       </c>
       <c r="F15" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G15">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="H15" t="s">
         <v>47</v>
       </c>
       <c r="J15" t="s">
-        <v>50</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="L15" t="s">
-        <v>49</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="K15" s="2"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="str">
@@ -1124,14 +1127,14 @@
         <v>0</v>
       </c>
       <c r="H16" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J16" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K16" s="2"/>
       <c r="L16" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
@@ -1156,14 +1159,14 @@
         <v>0</v>
       </c>
       <c r="H17" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J17" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K17" s="2"/>
       <c r="L17" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
@@ -1188,14 +1191,14 @@
         <v>0</v>
       </c>
       <c r="H18" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J18" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K18" s="2"/>
       <c r="L18" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
@@ -1220,14 +1223,14 @@
         <v>0</v>
       </c>
       <c r="H19" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J19" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K19" s="2"/>
       <c r="L19" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
@@ -1252,14 +1255,14 @@
         <v>0</v>
       </c>
       <c r="H20" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J20" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K20" s="2"/>
       <c r="L20" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
@@ -1284,14 +1287,14 @@
         <v>0</v>
       </c>
       <c r="H21" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J21" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K21" s="2"/>
       <c r="L21" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
@@ -1316,14 +1319,14 @@
         <v>0</v>
       </c>
       <c r="H22" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J22" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K22" s="2"/>
       <c r="L22" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
@@ -1348,14 +1351,14 @@
         <v>0</v>
       </c>
       <c r="H23" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J23" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K23" s="2"/>
       <c r="L23" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
@@ -1380,14 +1383,14 @@
         <v>0</v>
       </c>
       <c r="H24" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J24" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K24" s="2"/>
       <c r="L24" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
@@ -1412,14 +1415,14 @@
         <v>0</v>
       </c>
       <c r="H25" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J25" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K25" s="2"/>
       <c r="L25" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
@@ -1444,14 +1447,14 @@
         <v>0</v>
       </c>
       <c r="H26" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J26" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K26" s="2"/>
       <c r="L26" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
@@ -1476,14 +1479,14 @@
         <v>0</v>
       </c>
       <c r="H27" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J27" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K27" s="2"/>
       <c r="L27" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
@@ -1508,14 +1511,14 @@
         <v>0</v>
       </c>
       <c r="H28" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J28" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K28" s="2"/>
       <c r="L28" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
@@ -1540,14 +1543,14 @@
         <v>0</v>
       </c>
       <c r="H29" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J29" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K29" s="2"/>
       <c r="L29" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
@@ -1572,14 +1575,14 @@
         <v>0</v>
       </c>
       <c r="H30" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J30" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K30" s="2"/>
       <c r="L30" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
@@ -1604,14 +1607,14 @@
         <v>0</v>
       </c>
       <c r="H31" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J31" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K31" s="2"/>
       <c r="L31" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
@@ -1636,14 +1639,14 @@
         <v>4.4781811103810604E-2</v>
       </c>
       <c r="H32" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J32" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K32" s="2"/>
       <c r="L32" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
@@ -1668,14 +1671,14 @@
         <v>3.3372074148548321E-2</v>
       </c>
       <c r="H33" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J33" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K33" s="2"/>
       <c r="L33" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
@@ -1700,14 +1703,14 @@
         <v>3.3643053250405543E-2</v>
       </c>
       <c r="H34" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J34" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K34" s="2"/>
       <c r="L34" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
@@ -1732,14 +1735,14 @@
         <v>0.11384958968128883</v>
       </c>
       <c r="H35" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J35" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K35" s="2"/>
       <c r="L35" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
@@ -1764,14 +1767,14 @@
         <v>0.19280094548875634</v>
       </c>
       <c r="H36" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J36" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K36" s="2"/>
       <c r="L36" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
@@ -1796,14 +1799,14 @@
         <v>0.34605002267933099</v>
       </c>
       <c r="H37" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J37" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K37" s="2"/>
       <c r="L37" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
@@ -1828,14 +1831,14 @@
         <v>8.5137612740660558</v>
       </c>
       <c r="H38" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J38" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K38" s="2"/>
       <c r="L38" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
@@ -1860,14 +1863,14 @@
         <v>17.148912802508896</v>
       </c>
       <c r="H39" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J39" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K39" s="2"/>
       <c r="L39" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.2">
@@ -1892,14 +1895,14 @@
         <v>22.65920765286883</v>
       </c>
       <c r="H40" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J40" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K40" s="2"/>
       <c r="L40" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.2">
@@ -1924,14 +1927,14 @@
         <v>30.913936182494169</v>
       </c>
       <c r="H41" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J41" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K41" s="2"/>
       <c r="L41" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.2">
@@ -1956,14 +1959,14 @@
         <v>37.382089534697066</v>
       </c>
       <c r="H42" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J42" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K42" s="2"/>
       <c r="L42" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.2">
@@ -1988,14 +1991,14 @@
         <v>38.96442562425694</v>
       </c>
       <c r="H43" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J43" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K43" s="2"/>
       <c r="L43" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.2">
@@ -2020,14 +2023,14 @@
         <v>42.571556556680612</v>
       </c>
       <c r="H44" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J44" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K44" s="2"/>
       <c r="L44" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.2">
@@ -2052,14 +2055,14 @@
         <v>69.506738561952858</v>
       </c>
       <c r="H45" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J45" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K45" s="2"/>
       <c r="L45" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.2">
@@ -2084,14 +2087,14 @@
         <v>110.66834633254678</v>
       </c>
       <c r="H46" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J46" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K46" s="2"/>
       <c r="L46" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.2">
@@ -2116,14 +2119,14 @@
         <v>217.05708764931413</v>
       </c>
       <c r="H47" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J47" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K47" s="2"/>
       <c r="L47" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.2">
@@ -2151,13 +2154,13 @@
         <v>43</v>
       </c>
       <c r="J48" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="L48" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.2">
@@ -2185,13 +2188,13 @@
         <v>43</v>
       </c>
       <c r="J49" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K49" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="L49" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.2">
@@ -2219,13 +2222,13 @@
         <v>43</v>
       </c>
       <c r="J50" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="L50" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.2">
@@ -2253,13 +2256,13 @@
         <v>43</v>
       </c>
       <c r="J51" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="L51" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.2">
@@ -2287,13 +2290,13 @@
         <v>43</v>
       </c>
       <c r="J52" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="L52" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.2">
@@ -2321,13 +2324,13 @@
         <v>43</v>
       </c>
       <c r="J53" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="L53" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.2">
@@ -2355,13 +2358,13 @@
         <v>43</v>
       </c>
       <c r="J54" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="L54" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.2">
@@ -2389,13 +2392,13 @@
         <v>43</v>
       </c>
       <c r="J55" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K55" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="L55" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.2">
@@ -2423,13 +2426,13 @@
         <v>43</v>
       </c>
       <c r="J56" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K56" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="L56" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.2">
@@ -2457,13 +2460,13 @@
         <v>43</v>
       </c>
       <c r="J57" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K57" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="L57" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.2">
@@ -2491,13 +2494,13 @@
         <v>43</v>
       </c>
       <c r="J58" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K58" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="L58" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.2">
@@ -2525,13 +2528,13 @@
         <v>43</v>
       </c>
       <c r="J59" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="L59" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.2">
@@ -2559,13 +2562,13 @@
         <v>43</v>
       </c>
       <c r="J60" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K60" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="L60" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.2">
@@ -2593,13 +2596,13 @@
         <v>43</v>
       </c>
       <c r="J61" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K61" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="L61" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.2">
@@ -2627,13 +2630,13 @@
         <v>43</v>
       </c>
       <c r="J62" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K62" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="L62" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.2">
@@ -2661,13 +2664,13 @@
         <v>43</v>
       </c>
       <c r="J63" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K63" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="L63" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.2">
@@ -2695,13 +2698,13 @@
         <v>43</v>
       </c>
       <c r="J64" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K64" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="L64" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.2">
@@ -2729,13 +2732,13 @@
         <v>43</v>
       </c>
       <c r="J65" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K65" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="L65" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.2">
@@ -2763,13 +2766,13 @@
         <v>43</v>
       </c>
       <c r="J66" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K66" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="L66" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.2">
@@ -2797,13 +2800,13 @@
         <v>43</v>
       </c>
       <c r="J67" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K67" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="L67" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.2">
@@ -2831,13 +2834,13 @@
         <v>43</v>
       </c>
       <c r="J68" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K68" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="L68" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.2">
@@ -2865,13 +2868,13 @@
         <v>43</v>
       </c>
       <c r="J69" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K69" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="L69" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.2">
@@ -2899,13 +2902,13 @@
         <v>43</v>
       </c>
       <c r="J70" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K70" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="L70" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.2">
@@ -2933,13 +2936,13 @@
         <v>43</v>
       </c>
       <c r="J71" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K71" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="L71" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.2">
@@ -2967,13 +2970,13 @@
         <v>43</v>
       </c>
       <c r="J72" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K72" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="L72" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.2">
@@ -3001,13 +3004,13 @@
         <v>43</v>
       </c>
       <c r="J73" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K73" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="L73" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.2">
@@ -3035,13 +3038,13 @@
         <v>43</v>
       </c>
       <c r="J74" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K74" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="L74" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.2">
@@ -3069,13 +3072,13 @@
         <v>43</v>
       </c>
       <c r="J75" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K75" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="L75" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.2">
@@ -3103,13 +3106,13 @@
         <v>43</v>
       </c>
       <c r="J76" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K76" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="L76" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.2">
@@ -3137,13 +3140,13 @@
         <v>43</v>
       </c>
       <c r="J77" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K77" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="L77" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.2">
@@ -3171,13 +3174,13 @@
         <v>43</v>
       </c>
       <c r="J78" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K78" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="L78" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.2">
@@ -3205,13 +3208,13 @@
         <v>43</v>
       </c>
       <c r="J79" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K79" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="L79" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.2">
@@ -3259,11 +3262,11 @@
         <v>43</v>
       </c>
       <c r="J81" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K81" s="2"/>
       <c r="L81" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.2">
@@ -3291,11 +3294,11 @@
         <v>43</v>
       </c>
       <c r="J82" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K82" s="2"/>
       <c r="L82" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.2">
@@ -3323,11 +3326,11 @@
         <v>43</v>
       </c>
       <c r="J83" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K83" s="2"/>
       <c r="L83" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.2">
@@ -3355,11 +3358,11 @@
         <v>43</v>
       </c>
       <c r="J84" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K84" s="2"/>
       <c r="L84" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.2">
@@ -3387,11 +3390,11 @@
         <v>43</v>
       </c>
       <c r="J85" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K85" s="2"/>
       <c r="L85" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.2">
@@ -3419,11 +3422,11 @@
         <v>43</v>
       </c>
       <c r="J86" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K86" s="2"/>
       <c r="L86" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.2">
@@ -3451,11 +3454,11 @@
         <v>43</v>
       </c>
       <c r="J87" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K87" s="2"/>
       <c r="L87" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.2">
@@ -3483,11 +3486,11 @@
         <v>43</v>
       </c>
       <c r="J88" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K88" s="2"/>
       <c r="L88" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.2">
@@ -3515,11 +3518,11 @@
         <v>43</v>
       </c>
       <c r="J89" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K89" s="2"/>
       <c r="L89" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.2">
@@ -3547,11 +3550,11 @@
         <v>43</v>
       </c>
       <c r="J90" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K90" s="2"/>
       <c r="L90" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.2">
@@ -3579,11 +3582,11 @@
         <v>43</v>
       </c>
       <c r="J91" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K91" s="2"/>
       <c r="L91" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.2">
@@ -3611,11 +3614,11 @@
         <v>43</v>
       </c>
       <c r="J92" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K92" s="2"/>
       <c r="L92" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.2">
@@ -3643,11 +3646,11 @@
         <v>43</v>
       </c>
       <c r="J93" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K93" s="2"/>
       <c r="L93" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.2">
@@ -3675,11 +3678,11 @@
         <v>43</v>
       </c>
       <c r="J94" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K94" s="2"/>
       <c r="L94" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.2">
@@ -3707,13 +3710,13 @@
         <v>43</v>
       </c>
       <c r="J95" t="s">
+        <v>64</v>
+      </c>
+      <c r="K95" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="K95" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="L95" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.2">
@@ -3741,13 +3744,13 @@
         <v>43</v>
       </c>
       <c r="J96" t="s">
+        <v>64</v>
+      </c>
+      <c r="K96" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="K96" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="L96" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.2">
@@ -3775,13 +3778,13 @@
         <v>43</v>
       </c>
       <c r="J97" t="s">
+        <v>64</v>
+      </c>
+      <c r="K97" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="K97" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="L97" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.2">
@@ -3809,13 +3812,13 @@
         <v>43</v>
       </c>
       <c r="J98" t="s">
+        <v>64</v>
+      </c>
+      <c r="K98" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="K98" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="L98" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.2">
@@ -3843,13 +3846,13 @@
         <v>43</v>
       </c>
       <c r="J99" t="s">
+        <v>64</v>
+      </c>
+      <c r="K99" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="K99" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="L99" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.2">
@@ -3877,13 +3880,13 @@
         <v>43</v>
       </c>
       <c r="J100" t="s">
+        <v>64</v>
+      </c>
+      <c r="K100" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="K100" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="L100" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.2">
@@ -3911,13 +3914,13 @@
         <v>43</v>
       </c>
       <c r="J101" t="s">
+        <v>64</v>
+      </c>
+      <c r="K101" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="K101" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="L101" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.2">
@@ -3945,13 +3948,13 @@
         <v>43</v>
       </c>
       <c r="J102" t="s">
+        <v>64</v>
+      </c>
+      <c r="K102" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="K102" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="L102" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.2">
@@ -3979,13 +3982,13 @@
         <v>43</v>
       </c>
       <c r="J103" t="s">
+        <v>64</v>
+      </c>
+      <c r="K103" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="K103" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="L103" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.2">
@@ -4013,13 +4016,13 @@
         <v>43</v>
       </c>
       <c r="J104" t="s">
+        <v>64</v>
+      </c>
+      <c r="K104" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="K104" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="L104" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.2">
@@ -4047,13 +4050,13 @@
         <v>43</v>
       </c>
       <c r="J105" t="s">
+        <v>64</v>
+      </c>
+      <c r="K105" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="K105" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="L105" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.2">
@@ -4081,13 +4084,13 @@
         <v>43</v>
       </c>
       <c r="J106" t="s">
+        <v>64</v>
+      </c>
+      <c r="K106" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="K106" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="L106" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.2">
@@ -4115,13 +4118,13 @@
         <v>43</v>
       </c>
       <c r="J107" t="s">
+        <v>64</v>
+      </c>
+      <c r="K107" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="K107" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="L107" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.2">
@@ -4149,13 +4152,13 @@
         <v>43</v>
       </c>
       <c r="J108" t="s">
+        <v>64</v>
+      </c>
+      <c r="K108" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="K108" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="L108" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.2">
@@ -4183,13 +4186,13 @@
         <v>43</v>
       </c>
       <c r="J109" t="s">
+        <v>64</v>
+      </c>
+      <c r="K109" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="K109" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="L109" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.2">
@@ -4217,13 +4220,13 @@
         <v>43</v>
       </c>
       <c r="J110" t="s">
+        <v>64</v>
+      </c>
+      <c r="K110" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="K110" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="L110" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.2">
@@ -4251,13 +4254,13 @@
         <v>43</v>
       </c>
       <c r="J111" t="s">
+        <v>64</v>
+      </c>
+      <c r="K111" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="K111" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="L111" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.2">
@@ -4304,10 +4307,10 @@
         <v>43</v>
       </c>
       <c r="J113" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="L113" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.2">
@@ -4335,10 +4338,10 @@
         <v>43</v>
       </c>
       <c r="J114" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="L114" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.2">
@@ -4366,10 +4369,10 @@
         <v>43</v>
       </c>
       <c r="J115" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="L115" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.2">
@@ -4397,10 +4400,10 @@
         <v>43</v>
       </c>
       <c r="J116" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="L116" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.2">
@@ -4428,10 +4431,10 @@
         <v>43</v>
       </c>
       <c r="J117" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="L117" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.2">
@@ -4459,10 +4462,10 @@
         <v>43</v>
       </c>
       <c r="J118" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="L118" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.2">
@@ -4490,10 +4493,10 @@
         <v>43</v>
       </c>
       <c r="J119" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="L119" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.2">
@@ -4521,10 +4524,10 @@
         <v>43</v>
       </c>
       <c r="J120" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="L120" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.2">
@@ -4552,10 +4555,10 @@
         <v>43</v>
       </c>
       <c r="J121" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="L121" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.2">
@@ -4583,10 +4586,10 @@
         <v>43</v>
       </c>
       <c r="J122" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="L122" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.2">
@@ -4614,10 +4617,10 @@
         <v>43</v>
       </c>
       <c r="J123" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="L123" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.2">
@@ -4645,10 +4648,10 @@
         <v>43</v>
       </c>
       <c r="J124" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="L124" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.2">
@@ -4676,10 +4679,10 @@
         <v>43</v>
       </c>
       <c r="J125" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="L125" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.2">
@@ -4707,10 +4710,10 @@
         <v>43</v>
       </c>
       <c r="J126" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="L126" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.2">
@@ -4738,10 +4741,10 @@
         <v>43</v>
       </c>
       <c r="J127" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="L127" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.2">
@@ -4769,10 +4772,10 @@
         <v>43</v>
       </c>
       <c r="J128" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="L128" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.2">
@@ -4800,10 +4803,10 @@
         <v>43</v>
       </c>
       <c r="J129" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="L129" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.2">
@@ -4831,10 +4834,10 @@
         <v>43</v>
       </c>
       <c r="J130" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="L130" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.2">
@@ -4862,10 +4865,10 @@
         <v>43</v>
       </c>
       <c r="J131" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="L131" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.2">
@@ -4893,10 +4896,10 @@
         <v>43</v>
       </c>
       <c r="J132" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="L132" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.2">
@@ -4924,10 +4927,10 @@
         <v>43</v>
       </c>
       <c r="J133" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="L133" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.2">
@@ -4955,10 +4958,10 @@
         <v>43</v>
       </c>
       <c r="J134" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="L134" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.2">
@@ -4986,10 +4989,10 @@
         <v>43</v>
       </c>
       <c r="J135" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="L135" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.2">
@@ -5017,10 +5020,10 @@
         <v>43</v>
       </c>
       <c r="J136" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="L136" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.2">
@@ -5048,10 +5051,10 @@
         <v>43</v>
       </c>
       <c r="J137" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="L137" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.2">
@@ -5079,10 +5082,10 @@
         <v>43</v>
       </c>
       <c r="J138" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="L138" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.2">
@@ -5110,10 +5113,10 @@
         <v>43</v>
       </c>
       <c r="J139" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="L139" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.2">
@@ -5141,10 +5144,10 @@
         <v>43</v>
       </c>
       <c r="J140" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="L140" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.2">
@@ -5172,10 +5175,10 @@
         <v>43</v>
       </c>
       <c r="J141" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="L141" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.2">
@@ -5203,10 +5206,10 @@
         <v>43</v>
       </c>
       <c r="J142" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="L142" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.2">
@@ -5234,10 +5237,10 @@
         <v>43</v>
       </c>
       <c r="J143" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="L143" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.2">
@@ -5262,10 +5265,10 @@
         <v>0</v>
       </c>
       <c r="H144" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="L144" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.2">
@@ -6072,16 +6075,16 @@
         <v>53422.889352818362</v>
       </c>
       <c r="H186" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="J186" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="K186" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="L186" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="187" spans="1:12" x14ac:dyDescent="0.2">
@@ -6106,16 +6109,16 @@
         <v>52033.970138248835</v>
       </c>
       <c r="H187" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="J187" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="K187" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="L187" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="188" spans="1:12" x14ac:dyDescent="0.2">
@@ -6140,16 +6143,16 @@
         <v>50619.583098591538</v>
       </c>
       <c r="H188" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="J188" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="K188" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="L188" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="189" spans="1:12" x14ac:dyDescent="0.2">
@@ -6174,16 +6177,16 @@
         <v>49179.021268606673</v>
       </c>
       <c r="H189" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="J189" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="K189" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="L189" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="190" spans="1:12" x14ac:dyDescent="0.2">
@@ -6208,16 +6211,16 @@
         <v>47711.551272333505</v>
       </c>
       <c r="H190" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="J190" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="K190" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="L190" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="191" spans="1:12" x14ac:dyDescent="0.2">
@@ -6242,16 +6245,16 @@
         <v>46216.412078152745</v>
       </c>
       <c r="H191" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="J191" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="K191" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="L191" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="192" spans="1:12" x14ac:dyDescent="0.2">
@@ -6276,16 +6279,16 @@
         <v>44692.813682758613</v>
       </c>
       <c r="H192" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="J192" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="K192" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="L192" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="193" spans="1:12" x14ac:dyDescent="0.2">
@@ -6310,16 +6313,16 @@
         <v>43139.935719259149</v>
       </c>
       <c r="H193" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="J193" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="K193" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="L193" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="194" spans="1:12" x14ac:dyDescent="0.2">
@@ -6344,16 +6347,16 @@
         <v>41556.92598425196</v>
       </c>
       <c r="H194" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="J194" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="K194" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="L194" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="195" spans="1:12" x14ac:dyDescent="0.2">
@@ -6378,16 +6381,16 @@
         <v>39942.898878318891</v>
       </c>
       <c r="H195" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="J195" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="K195" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="L195" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="196" spans="1:12" x14ac:dyDescent="0.2">
@@ -6412,16 +6415,16 @@
         <v>38296.933753943209</v>
       </c>
       <c r="H196" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="J196" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="K196" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="L196" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="197" spans="1:12" x14ac:dyDescent="0.2">
@@ -6560,16 +6563,16 @@
         <v>37349.311999999991</v>
       </c>
       <c r="H203" t="s">
+        <v>82</v>
+      </c>
+      <c r="J203" t="s">
         <v>86</v>
       </c>
-      <c r="J203" t="s">
-        <v>90</v>
-      </c>
       <c r="K203" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="L203" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="204" spans="1:12" x14ac:dyDescent="0.2">
@@ -7241,16 +7244,16 @@
         <v>67100</v>
       </c>
       <c r="H238" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="J238" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="K238" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="L238" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="239" spans="1:12" x14ac:dyDescent="0.2">
@@ -7318,7 +7321,7 @@
         <v>units</v>
       </c>
       <c r="L241" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="242" spans="1:12" x14ac:dyDescent="0.2">
@@ -7348,7 +7351,7 @@
         <v>units</v>
       </c>
       <c r="L242" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="243" spans="1:12" x14ac:dyDescent="0.2">
@@ -7378,7 +7381,7 @@
         <v>units</v>
       </c>
       <c r="L243" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="244" spans="1:12" x14ac:dyDescent="0.2">
@@ -7408,7 +7411,7 @@
         <v>units</v>
       </c>
       <c r="L244" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="245" spans="1:12" x14ac:dyDescent="0.2">
@@ -7438,7 +7441,7 @@
         <v>units</v>
       </c>
       <c r="L245" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="246" spans="1:12" x14ac:dyDescent="0.2">
@@ -7468,7 +7471,7 @@
         <v>units</v>
       </c>
       <c r="L246" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="247" spans="1:12" x14ac:dyDescent="0.2">
@@ -7498,7 +7501,7 @@
         <v>units</v>
       </c>
       <c r="L247" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="248" spans="1:12" x14ac:dyDescent="0.2">
@@ -7528,7 +7531,7 @@
         <v>units</v>
       </c>
       <c r="L248" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="249" spans="1:12" x14ac:dyDescent="0.2">
@@ -7558,7 +7561,7 @@
         <v>units</v>
       </c>
       <c r="L249" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="250" spans="1:12" x14ac:dyDescent="0.2">
@@ -7588,7 +7591,7 @@
         <v>units</v>
       </c>
       <c r="L250" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="251" spans="1:12" x14ac:dyDescent="0.2">
@@ -7618,7 +7621,7 @@
         <v>units</v>
       </c>
       <c r="L251" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="252" spans="1:12" x14ac:dyDescent="0.2">
@@ -7648,7 +7651,7 @@
         <v>units</v>
       </c>
       <c r="L252" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="253" spans="1:12" x14ac:dyDescent="0.2">
@@ -7678,7 +7681,7 @@
         <v>units</v>
       </c>
       <c r="L253" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="254" spans="1:12" x14ac:dyDescent="0.2">
@@ -7708,7 +7711,7 @@
         <v>units</v>
       </c>
       <c r="L254" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="255" spans="1:12" x14ac:dyDescent="0.2">
@@ -7738,7 +7741,7 @@
         <v>units</v>
       </c>
       <c r="L255" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="256" spans="1:12" x14ac:dyDescent="0.2">
@@ -7768,7 +7771,7 @@
         <v>units</v>
       </c>
       <c r="L256" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="257" spans="1:12" x14ac:dyDescent="0.2">
@@ -7798,7 +7801,7 @@
         <v>units</v>
       </c>
       <c r="L257" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="258" spans="1:12" x14ac:dyDescent="0.2">
@@ -7828,7 +7831,7 @@
         <v>units</v>
       </c>
       <c r="L258" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="259" spans="1:12" x14ac:dyDescent="0.2">
@@ -7858,7 +7861,7 @@
         <v>units</v>
       </c>
       <c r="L259" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="260" spans="1:12" x14ac:dyDescent="0.2">
@@ -7888,7 +7891,7 @@
         <v>units</v>
       </c>
       <c r="L260" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="261" spans="1:12" x14ac:dyDescent="0.2">
@@ -7918,7 +7921,7 @@
         <v>units</v>
       </c>
       <c r="L261" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="262" spans="1:12" x14ac:dyDescent="0.2">
@@ -7948,7 +7951,7 @@
         <v>units</v>
       </c>
       <c r="L262" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="263" spans="1:12" x14ac:dyDescent="0.2">
@@ -7978,7 +7981,7 @@
         <v>units</v>
       </c>
       <c r="L263" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="264" spans="1:12" x14ac:dyDescent="0.2">
@@ -8008,7 +8011,7 @@
         <v>units</v>
       </c>
       <c r="L264" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="265" spans="1:12" x14ac:dyDescent="0.2">
@@ -8038,7 +8041,7 @@
         <v>units</v>
       </c>
       <c r="L265" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="266" spans="1:12" x14ac:dyDescent="0.2">
@@ -8068,7 +8071,7 @@
         <v>units</v>
       </c>
       <c r="L266" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="267" spans="1:12" x14ac:dyDescent="0.2">
@@ -8098,7 +8101,7 @@
         <v>units</v>
       </c>
       <c r="L267" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="268" spans="1:12" x14ac:dyDescent="0.2">
@@ -8128,7 +8131,7 @@
         <v>units</v>
       </c>
       <c r="L268" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="269" spans="1:12" x14ac:dyDescent="0.2">
@@ -8158,7 +8161,7 @@
         <v>units</v>
       </c>
       <c r="L269" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="270" spans="1:12" x14ac:dyDescent="0.2">
@@ -8188,7 +8191,7 @@
         <v>units</v>
       </c>
       <c r="L270" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="271" spans="1:12" x14ac:dyDescent="0.2">
@@ -8218,7 +8221,7 @@
         <v>units</v>
       </c>
       <c r="L271" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="272" spans="1:12" x14ac:dyDescent="0.2">
@@ -8244,7 +8247,7 @@
       </c>
       <c r="K272" s="2"/>
       <c r="L272" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="273" spans="1:12" x14ac:dyDescent="0.2">
@@ -8270,7 +8273,7 @@
       </c>
       <c r="K273" s="2"/>
       <c r="L273" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="274" spans="1:12" x14ac:dyDescent="0.2">
@@ -8296,7 +8299,7 @@
       </c>
       <c r="K274" s="2"/>
       <c r="L274" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="275" spans="1:12" x14ac:dyDescent="0.2">
@@ -8322,7 +8325,7 @@
       </c>
       <c r="K275" s="2"/>
       <c r="L275" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="276" spans="1:12" x14ac:dyDescent="0.2">
@@ -8348,7 +8351,7 @@
       </c>
       <c r="K276" s="2"/>
       <c r="L276" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="277" spans="1:12" x14ac:dyDescent="0.2">
@@ -8374,7 +8377,7 @@
       </c>
       <c r="K277" s="2"/>
       <c r="L277" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="278" spans="1:12" x14ac:dyDescent="0.2">
@@ -8400,7 +8403,7 @@
       </c>
       <c r="K278" s="2"/>
       <c r="L278" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="279" spans="1:12" x14ac:dyDescent="0.2">
@@ -8426,7 +8429,7 @@
       </c>
       <c r="K279" s="2"/>
       <c r="L279" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="280" spans="1:12" x14ac:dyDescent="0.2">
@@ -8452,7 +8455,7 @@
       </c>
       <c r="K280" s="2"/>
       <c r="L280" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="281" spans="1:12" x14ac:dyDescent="0.2">
@@ -8478,7 +8481,7 @@
       </c>
       <c r="K281" s="2"/>
       <c r="L281" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="282" spans="1:12" x14ac:dyDescent="0.2">
@@ -8504,7 +8507,7 @@
       </c>
       <c r="K282" s="2"/>
       <c r="L282" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="283" spans="1:12" x14ac:dyDescent="0.2">
@@ -8530,7 +8533,7 @@
       </c>
       <c r="K283" s="2"/>
       <c r="L283" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="284" spans="1:12" x14ac:dyDescent="0.2">
@@ -8556,7 +8559,7 @@
       </c>
       <c r="K284" s="2"/>
       <c r="L284" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="285" spans="1:12" x14ac:dyDescent="0.2">
@@ -8581,7 +8584,7 @@
         <v>1</v>
       </c>
       <c r="L285" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="286" spans="1:12" x14ac:dyDescent="0.2">
@@ -8606,7 +8609,7 @@
         <v>1</v>
       </c>
       <c r="L286" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="287" spans="1:12" x14ac:dyDescent="0.2">
@@ -8631,7 +8634,7 @@
         <v>1</v>
       </c>
       <c r="L287" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="288" spans="1:12" x14ac:dyDescent="0.2">
@@ -8656,7 +8659,7 @@
         <v>1</v>
       </c>
       <c r="L288" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="289" spans="1:12" x14ac:dyDescent="0.2">
@@ -8681,7 +8684,7 @@
         <v>1</v>
       </c>
       <c r="L289" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="290" spans="1:12" x14ac:dyDescent="0.2">
@@ -8706,7 +8709,7 @@
         <v>1</v>
       </c>
       <c r="L290" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="291" spans="1:12" x14ac:dyDescent="0.2">
@@ -8731,7 +8734,7 @@
         <v>1</v>
       </c>
       <c r="L291" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="292" spans="1:12" x14ac:dyDescent="0.2">
@@ -8756,7 +8759,7 @@
         <v>1</v>
       </c>
       <c r="L292" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="293" spans="1:12" x14ac:dyDescent="0.2">
@@ -8781,7 +8784,7 @@
         <v>1</v>
       </c>
       <c r="L293" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="294" spans="1:12" x14ac:dyDescent="0.2">
@@ -8806,7 +8809,7 @@
         <v>1</v>
       </c>
       <c r="L294" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="295" spans="1:12" x14ac:dyDescent="0.2">
@@ -8831,7 +8834,7 @@
         <v>1</v>
       </c>
       <c r="L295" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="296" spans="1:12" x14ac:dyDescent="0.2">
@@ -8856,7 +8859,7 @@
         <v>1</v>
       </c>
       <c r="L296" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="297" spans="1:12" x14ac:dyDescent="0.2">
@@ -8881,7 +8884,7 @@
         <v>1</v>
       </c>
       <c r="L297" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="298" spans="1:12" x14ac:dyDescent="0.2">
@@ -8906,7 +8909,7 @@
         <v>1</v>
       </c>
       <c r="L298" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="299" spans="1:12" x14ac:dyDescent="0.2">
@@ -8931,7 +8934,7 @@
         <v>1</v>
       </c>
       <c r="L299" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="300" spans="1:12" x14ac:dyDescent="0.2">
@@ -8956,7 +8959,7 @@
         <v>1</v>
       </c>
       <c r="L300" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="301" spans="1:12" x14ac:dyDescent="0.2">
@@ -8981,7 +8984,7 @@
         <v>1</v>
       </c>
       <c r="L301" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="302" spans="1:12" x14ac:dyDescent="0.2">
@@ -9006,7 +9009,7 @@
         <v>1</v>
       </c>
       <c r="L302" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="303" spans="1:12" x14ac:dyDescent="0.2">
@@ -9031,7 +9034,7 @@
         <v>1</v>
       </c>
       <c r="L303" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="304" spans="1:12" x14ac:dyDescent="0.2">
@@ -9056,7 +9059,7 @@
         <v>0</v>
       </c>
       <c r="L304" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="305" spans="1:12" x14ac:dyDescent="0.2">
@@ -9081,7 +9084,7 @@
         <v>0</v>
       </c>
       <c r="L305" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="306" spans="1:12" x14ac:dyDescent="0.2">
@@ -9106,7 +9109,7 @@
         <v>0</v>
       </c>
       <c r="L306" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="307" spans="1:12" x14ac:dyDescent="0.2">
@@ -9131,7 +9134,7 @@
         <v>0</v>
       </c>
       <c r="L307" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="308" spans="1:12" x14ac:dyDescent="0.2">
@@ -9156,7 +9159,7 @@
         <v>0</v>
       </c>
       <c r="L308" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="309" spans="1:12" x14ac:dyDescent="0.2">
@@ -9181,7 +9184,7 @@
         <v>0</v>
       </c>
       <c r="L309" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="310" spans="1:12" x14ac:dyDescent="0.2">
@@ -9206,7 +9209,7 @@
         <v>0</v>
       </c>
       <c r="L310" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="311" spans="1:12" x14ac:dyDescent="0.2">
@@ -9231,7 +9234,7 @@
         <v>0</v>
       </c>
       <c r="L311" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="312" spans="1:12" x14ac:dyDescent="0.2">
@@ -9256,7 +9259,7 @@
         <v>0</v>
       </c>
       <c r="L312" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="313" spans="1:12" x14ac:dyDescent="0.2">
@@ -9281,7 +9284,7 @@
         <v>0</v>
       </c>
       <c r="L313" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="314" spans="1:12" x14ac:dyDescent="0.2">
@@ -9306,7 +9309,7 @@
         <v>0</v>
       </c>
       <c r="L314" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="315" spans="1:12" x14ac:dyDescent="0.2">
@@ -9331,7 +9334,7 @@
         <v>0</v>
       </c>
       <c r="L315" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="316" spans="1:12" x14ac:dyDescent="0.2">
@@ -9356,7 +9359,7 @@
         <v>0</v>
       </c>
       <c r="L316" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="317" spans="1:12" x14ac:dyDescent="0.2">
@@ -9381,7 +9384,7 @@
         <v>0</v>
       </c>
       <c r="L317" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="318" spans="1:12" x14ac:dyDescent="0.2">
@@ -9406,7 +9409,7 @@
         <v>0</v>
       </c>
       <c r="L318" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="319" spans="1:12" x14ac:dyDescent="0.2">
@@ -9431,7 +9434,7 @@
         <v>0</v>
       </c>
       <c r="L319" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="320" spans="1:12" x14ac:dyDescent="0.2">
@@ -9456,7 +9459,7 @@
         <v>0</v>
       </c>
       <c r="L320" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="321" spans="1:12" x14ac:dyDescent="0.2">
@@ -9481,7 +9484,7 @@
         <v>0</v>
       </c>
       <c r="L321" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="322" spans="1:12" x14ac:dyDescent="0.2">
@@ -9506,7 +9509,7 @@
         <v>0</v>
       </c>
       <c r="L322" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="323" spans="1:12" x14ac:dyDescent="0.2">
@@ -9531,7 +9534,7 @@
         <v>0</v>
       </c>
       <c r="L323" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="324" spans="1:12" x14ac:dyDescent="0.2">
@@ -9556,7 +9559,7 @@
         <v>0</v>
       </c>
       <c r="L324" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="325" spans="1:12" x14ac:dyDescent="0.2">
@@ -9581,7 +9584,7 @@
         <v>0</v>
       </c>
       <c r="L325" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="326" spans="1:12" x14ac:dyDescent="0.2">
@@ -9606,7 +9609,7 @@
         <v>0</v>
       </c>
       <c r="L326" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="327" spans="1:12" x14ac:dyDescent="0.2">
@@ -9631,7 +9634,7 @@
         <v>0</v>
       </c>
       <c r="L327" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="328" spans="1:12" x14ac:dyDescent="0.2">
@@ -9656,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="L328" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="329" spans="1:12" x14ac:dyDescent="0.2">
@@ -9681,7 +9684,7 @@
         <v>0</v>
       </c>
       <c r="L329" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="330" spans="1:12" x14ac:dyDescent="0.2">
@@ -9706,7 +9709,7 @@
         <v>0</v>
       </c>
       <c r="L330" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="331" spans="1:12" x14ac:dyDescent="0.2">
@@ -9731,7 +9734,7 @@
         <v>0</v>
       </c>
       <c r="L331" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="332" spans="1:12" x14ac:dyDescent="0.2">
@@ -9756,7 +9759,7 @@
         <v>0</v>
       </c>
       <c r="L332" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="333" spans="1:12" x14ac:dyDescent="0.2">
@@ -9781,7 +9784,7 @@
         <v>0</v>
       </c>
       <c r="L333" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="334" spans="1:12" x14ac:dyDescent="0.2">
@@ -9806,7 +9809,7 @@
         <v>0</v>
       </c>
       <c r="L334" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="335" spans="1:12" x14ac:dyDescent="0.2">
@@ -9831,7 +9834,7 @@
         <v>0</v>
       </c>
       <c r="L335" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="336" spans="1:12" x14ac:dyDescent="0.2">
@@ -10229,16 +10232,16 @@
         <v>1.6862040205094498E-5</v>
       </c>
       <c r="H352" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="J352" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="K352" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="L352" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="353" spans="1:12" x14ac:dyDescent="0.2">
@@ -10267,16 +10270,16 @@
         <v>1.742919809038875E-5</v>
       </c>
       <c r="H353" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="J353" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="K353" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="L353" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="354" spans="1:12" x14ac:dyDescent="0.2">
@@ -10305,16 +10308,16 @@
         <v>1.8255786075705291E-5</v>
       </c>
       <c r="H354" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="J354" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="K354" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="L354" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="355" spans="1:12" x14ac:dyDescent="0.2">
@@ -10343,16 +10346,16 @@
         <v>1.9191980233433766E-5</v>
       </c>
       <c r="H355" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="J355" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="K355" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="L355" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="356" spans="1:12" x14ac:dyDescent="0.2">
@@ -10381,16 +10384,16 @@
         <v>1.9812897240986033E-5</v>
       </c>
       <c r="H356" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="J356" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="K356" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="L356" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="357" spans="1:12" x14ac:dyDescent="0.2">
@@ -10419,16 +10422,16 @@
         <v>2.0475334534757602E-5</v>
       </c>
       <c r="H357" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="J357" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="K357" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="L357" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="358" spans="1:12" x14ac:dyDescent="0.2">
@@ -10457,16 +10460,16 @@
         <v>2.095298619575506E-5</v>
       </c>
       <c r="H358" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="J358" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="K358" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="L358" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="359" spans="1:12" x14ac:dyDescent="0.2">
@@ -10495,16 +10498,16 @@
         <v>2.1660402128409167E-5</v>
       </c>
       <c r="H359" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="J359" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="K359" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="L359" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="360" spans="1:12" x14ac:dyDescent="0.2">
@@ -10533,16 +10536,16 @@
         <v>2.2014330267762262E-5</v>
       </c>
       <c r="H360" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="J360" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="K360" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="L360" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="361" spans="1:12" x14ac:dyDescent="0.2">
@@ -10571,16 +10574,16 @@
         <v>2.2912874360323985E-5</v>
       </c>
       <c r="H361" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="J361" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="K361" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="L361" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="362" spans="1:12" x14ac:dyDescent="0.2">
@@ -10609,16 +10612,16 @@
         <v>2.2912874360323985E-5</v>
       </c>
       <c r="H362" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="J362" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="K362" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="L362" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="363" spans="1:12" x14ac:dyDescent="0.2">
@@ -10647,16 +10650,16 @@
         <v>2.2605318999782726E-5</v>
       </c>
       <c r="H363" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="J363" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="K363" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="L363" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="364" spans="1:12" x14ac:dyDescent="0.2">
@@ -10685,16 +10688,16 @@
         <v>2.1730274393339522E-5</v>
       </c>
       <c r="H364" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="J364" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="K364" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="L364" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="365" spans="1:12" x14ac:dyDescent="0.2">
@@ -10785,22 +10788,22 @@
         <v>1990</v>
       </c>
       <c r="F368" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G368">
         <v>1.6619623743333447</v>
       </c>
       <c r="H368" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J368" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K368" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L368" t="s">
         <v>58</v>
-      </c>
-      <c r="L368" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="369" spans="1:12" x14ac:dyDescent="0.2">
@@ -10822,22 +10825,22 @@
         <v>1991</v>
       </c>
       <c r="F369" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G369">
         <v>1.6529349561812849</v>
       </c>
       <c r="H369" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J369" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K369" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L369" t="s">
         <v>58</v>
-      </c>
-      <c r="L369" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="370" spans="1:12" x14ac:dyDescent="0.2">
@@ -10859,22 +10862,22 @@
         <v>1992</v>
       </c>
       <c r="F370" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G370">
         <v>1.6439015880381007</v>
       </c>
       <c r="H370" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J370" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K370" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L370" t="s">
         <v>58</v>
-      </c>
-      <c r="L370" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="371" spans="1:12" x14ac:dyDescent="0.2">
@@ -10896,22 +10899,22 @@
         <v>1993</v>
       </c>
       <c r="F371" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G371">
         <v>1.6348977095326076</v>
       </c>
       <c r="H371" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J371" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K371" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L371" t="s">
         <v>58</v>
-      </c>
-      <c r="L371" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="372" spans="1:12" x14ac:dyDescent="0.2">
@@ -10933,22 +10936,22 @@
         <v>1994</v>
       </c>
       <c r="F372" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G372">
         <v>1.6359409990814882</v>
       </c>
       <c r="H372" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J372" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K372" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L372" t="s">
         <v>58</v>
-      </c>
-      <c r="L372" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="373" spans="1:12" x14ac:dyDescent="0.2">
@@ -10970,22 +10973,22 @@
         <v>1995</v>
       </c>
       <c r="F373" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G373">
         <v>1.627796211649325</v>
       </c>
       <c r="H373" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J373" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K373" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L373" t="s">
         <v>58</v>
-      </c>
-      <c r="L373" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="374" spans="1:12" x14ac:dyDescent="0.2">
@@ -11007,22 +11010,22 @@
         <v>1996</v>
       </c>
       <c r="F374" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G374">
         <v>1.6201500029414151</v>
       </c>
       <c r="H374" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J374" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K374" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L374" t="s">
         <v>58</v>
-      </c>
-      <c r="L374" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="375" spans="1:12" x14ac:dyDescent="0.2">
@@ -11044,22 +11047,22 @@
         <v>1997</v>
       </c>
       <c r="F375" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G375">
         <v>1.6129948320503564</v>
       </c>
       <c r="H375" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J375" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K375" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L375" t="s">
         <v>58</v>
-      </c>
-      <c r="L375" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="376" spans="1:12" x14ac:dyDescent="0.2">
@@ -11081,22 +11084,22 @@
         <v>1998</v>
       </c>
       <c r="F376" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G376">
         <v>1.6062654456809142</v>
       </c>
       <c r="H376" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J376" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K376" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L376" t="s">
         <v>58</v>
-      </c>
-      <c r="L376" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="377" spans="1:12" x14ac:dyDescent="0.2">
@@ -11118,22 +11121,22 @@
         <v>1999</v>
       </c>
       <c r="F377" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G377">
         <v>1.5998922064513665</v>
       </c>
       <c r="H377" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J377" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K377" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L377" t="s">
         <v>58</v>
-      </c>
-      <c r="L377" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="378" spans="1:12" x14ac:dyDescent="0.2">
@@ -11155,22 +11158,22 @@
         <v>2000</v>
       </c>
       <c r="F378" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G378">
         <v>1.5938163690116243</v>
       </c>
       <c r="H378" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J378" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K378" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L378" t="s">
         <v>58</v>
-      </c>
-      <c r="L378" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="379" spans="1:12" x14ac:dyDescent="0.2">
@@ -11192,22 +11195,22 @@
         <v>2001</v>
       </c>
       <c r="F379" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G379">
         <v>1.5906754879369145</v>
       </c>
       <c r="H379" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J379" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K379" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L379" t="s">
         <v>58</v>
-      </c>
-      <c r="L379" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="380" spans="1:12" x14ac:dyDescent="0.2">
@@ -11229,22 +11232,22 @@
         <v>2002</v>
       </c>
       <c r="F380" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G380">
         <v>1.587189549799211</v>
       </c>
       <c r="H380" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J380" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K380" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L380" t="s">
         <v>58</v>
-      </c>
-      <c r="L380" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="381" spans="1:12" x14ac:dyDescent="0.2">
@@ -11266,22 +11269,22 @@
         <v>2003</v>
       </c>
       <c r="F381" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G381">
         <v>1.5834524958984122</v>
       </c>
       <c r="H381" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J381" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K381" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L381" t="s">
         <v>58</v>
-      </c>
-      <c r="L381" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="382" spans="1:12" x14ac:dyDescent="0.2">
@@ -11303,22 +11306,22 @@
         <v>2004</v>
       </c>
       <c r="F382" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G382">
         <v>1.5795519905141138</v>
       </c>
       <c r="H382" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J382" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K382" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L382" t="s">
         <v>58</v>
-      </c>
-      <c r="L382" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="383" spans="1:12" x14ac:dyDescent="0.2">
@@ -11340,22 +11343,22 @@
         <v>2005</v>
       </c>
       <c r="F383" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G383">
         <v>1.5742273401858171</v>
       </c>
       <c r="H383" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J383" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K383" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L383" t="s">
         <v>58</v>
-      </c>
-      <c r="L383" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="384" spans="1:12" x14ac:dyDescent="0.2">
@@ -11377,22 +11380,22 @@
         <v>2006</v>
       </c>
       <c r="F384" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G384">
         <v>1.5770757432902991</v>
       </c>
       <c r="H384" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J384" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K384" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L384" t="s">
         <v>58</v>
-      </c>
-      <c r="L384" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="385" spans="1:12" x14ac:dyDescent="0.2">
@@ -11414,22 +11417,22 @@
         <v>2007</v>
       </c>
       <c r="F385" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G385">
         <v>1.5810502599514888</v>
       </c>
       <c r="H385" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J385" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K385" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L385" t="s">
         <v>58</v>
-      </c>
-      <c r="L385" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="386" spans="1:12" x14ac:dyDescent="0.2">
@@ -11451,22 +11454,22 @@
         <v>2008</v>
       </c>
       <c r="F386" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G386">
         <v>1.5868573677903355</v>
       </c>
       <c r="H386" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J386" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K386" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L386" t="s">
         <v>58</v>
-      </c>
-      <c r="L386" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="387" spans="1:12" x14ac:dyDescent="0.2">
@@ -11488,22 +11491,22 @@
         <v>2009</v>
       </c>
       <c r="F387" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G387">
         <v>1.5941421065031705</v>
       </c>
       <c r="H387" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J387" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K387" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L387" t="s">
         <v>58</v>
-      </c>
-      <c r="L387" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="388" spans="1:12" x14ac:dyDescent="0.2">
@@ -11525,22 +11528,22 @@
         <v>2010</v>
       </c>
       <c r="F388" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G388">
         <v>1.6027499464678339</v>
       </c>
       <c r="H388" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J388" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K388" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L388" t="s">
         <v>58</v>
-      </c>
-      <c r="L388" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="389" spans="1:12" x14ac:dyDescent="0.2">
@@ -11562,22 +11565,22 @@
         <v>2011</v>
       </c>
       <c r="F389" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G389">
         <v>1.5952803755147054</v>
       </c>
       <c r="H389" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J389" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K389" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L389" t="s">
         <v>58</v>
-      </c>
-      <c r="L389" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="390" spans="1:12" x14ac:dyDescent="0.2">
@@ -11599,22 +11602,22 @@
         <v>2012</v>
       </c>
       <c r="F390" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G390">
         <v>1.5881061022973417</v>
       </c>
       <c r="H390" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J390" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K390" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L390" t="s">
         <v>58</v>
-      </c>
-      <c r="L390" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="391" spans="1:12" x14ac:dyDescent="0.2">
@@ -11636,22 +11639,22 @@
         <v>2013</v>
       </c>
       <c r="F391" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G391">
         <v>1.580437033556165</v>
       </c>
       <c r="H391" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J391" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K391" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L391" t="s">
         <v>58</v>
-      </c>
-      <c r="L391" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="392" spans="1:12" x14ac:dyDescent="0.2">
@@ -11673,22 +11676,22 @@
         <v>2014</v>
       </c>
       <c r="F392" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G392">
         <v>1.5720933219641362</v>
       </c>
       <c r="H392" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J392" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K392" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L392" t="s">
         <v>58</v>
-      </c>
-      <c r="L392" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="393" spans="1:12" x14ac:dyDescent="0.2">
@@ -11710,22 +11713,22 @@
         <v>2015</v>
       </c>
       <c r="F393" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G393">
         <v>1.5638595650126308</v>
       </c>
       <c r="H393" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J393" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K393" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L393" t="s">
         <v>58</v>
-      </c>
-      <c r="L393" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="394" spans="1:12" x14ac:dyDescent="0.2">
@@ -11747,22 +11750,22 @@
         <v>2016</v>
       </c>
       <c r="F394" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G394">
         <v>1.5655707775003618</v>
       </c>
       <c r="H394" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J394" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K394" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L394" t="s">
         <v>58</v>
-      </c>
-      <c r="L394" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="395" spans="1:12" x14ac:dyDescent="0.2">
@@ -11784,22 +11787,22 @@
         <v>2017</v>
       </c>
       <c r="F395" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G395">
         <v>1.5669067656006332</v>
       </c>
       <c r="H395" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J395" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K395" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L395" t="s">
         <v>58</v>
-      </c>
-      <c r="L395" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="396" spans="1:12" x14ac:dyDescent="0.2">
@@ -11821,22 +11824,22 @@
         <v>2018</v>
       </c>
       <c r="F396" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G396">
         <v>1.5680560012794198</v>
       </c>
       <c r="H396" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J396" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K396" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L396" t="s">
         <v>58</v>
-      </c>
-      <c r="L396" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="397" spans="1:12" x14ac:dyDescent="0.2">
@@ -11858,22 +11861,22 @@
         <v>2019</v>
       </c>
       <c r="F397" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G397">
         <v>1.56899278989477</v>
       </c>
       <c r="H397" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J397" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K397" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L397" t="s">
         <v>58</v>
-      </c>
-      <c r="L397" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="398" spans="1:12" x14ac:dyDescent="0.2">
@@ -11895,22 +11898,22 @@
         <v>2020</v>
       </c>
       <c r="F398" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G398">
         <v>1.5830542936008962</v>
       </c>
       <c r="H398" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J398" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K398" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L398" t="s">
         <v>58</v>
-      </c>
-      <c r="L398" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="399" spans="1:12" x14ac:dyDescent="0.2">
@@ -11932,22 +11935,22 @@
         <v>2021</v>
       </c>
       <c r="F399" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G399">
         <v>1.5781479220274037</v>
       </c>
       <c r="H399" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J399" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K399" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L399" t="s">
         <v>58</v>
-      </c>
-      <c r="L399" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="400" spans="1:12" x14ac:dyDescent="0.2">
@@ -11969,23 +11972,23 @@
         <v>1990</v>
       </c>
       <c r="F400" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G400">
         <f>G368</f>
         <v>1.6619623743333447</v>
       </c>
       <c r="H400" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J400" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K400" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L400" t="s">
         <v>58</v>
-      </c>
-      <c r="L400" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="401" spans="1:12" x14ac:dyDescent="0.2">
@@ -12007,23 +12010,23 @@
         <v>1991</v>
       </c>
       <c r="F401" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G401">
         <f t="shared" ref="G401:G431" si="16">G369</f>
         <v>1.6529349561812849</v>
       </c>
       <c r="H401" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J401" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K401" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L401" t="s">
         <v>58</v>
-      </c>
-      <c r="L401" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="402" spans="1:12" x14ac:dyDescent="0.2">
@@ -12045,23 +12048,23 @@
         <v>1992</v>
       </c>
       <c r="F402" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G402">
         <f t="shared" si="16"/>
         <v>1.6439015880381007</v>
       </c>
       <c r="H402" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J402" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K402" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L402" t="s">
         <v>58</v>
-      </c>
-      <c r="L402" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="403" spans="1:12" x14ac:dyDescent="0.2">
@@ -12083,23 +12086,23 @@
         <v>1993</v>
       </c>
       <c r="F403" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G403">
         <f t="shared" si="16"/>
         <v>1.6348977095326076</v>
       </c>
       <c r="H403" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J403" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K403" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L403" t="s">
         <v>58</v>
-      </c>
-      <c r="L403" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="404" spans="1:12" x14ac:dyDescent="0.2">
@@ -12121,23 +12124,23 @@
         <v>1994</v>
       </c>
       <c r="F404" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G404">
         <f t="shared" si="16"/>
         <v>1.6359409990814882</v>
       </c>
       <c r="H404" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J404" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K404" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L404" t="s">
         <v>58</v>
-      </c>
-      <c r="L404" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="405" spans="1:12" x14ac:dyDescent="0.2">
@@ -12159,23 +12162,23 @@
         <v>1995</v>
       </c>
       <c r="F405" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G405">
         <f t="shared" si="16"/>
         <v>1.627796211649325</v>
       </c>
       <c r="H405" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J405" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K405" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L405" t="s">
         <v>58</v>
-      </c>
-      <c r="L405" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="406" spans="1:12" x14ac:dyDescent="0.2">
@@ -12197,23 +12200,23 @@
         <v>1996</v>
       </c>
       <c r="F406" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G406">
         <f t="shared" si="16"/>
         <v>1.6201500029414151</v>
       </c>
       <c r="H406" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J406" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K406" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L406" t="s">
         <v>58</v>
-      </c>
-      <c r="L406" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="407" spans="1:12" x14ac:dyDescent="0.2">
@@ -12235,23 +12238,23 @@
         <v>1997</v>
       </c>
       <c r="F407" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G407">
         <f t="shared" si="16"/>
         <v>1.6129948320503564</v>
       </c>
       <c r="H407" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J407" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K407" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L407" t="s">
         <v>58</v>
-      </c>
-      <c r="L407" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="408" spans="1:12" x14ac:dyDescent="0.2">
@@ -12273,23 +12276,23 @@
         <v>1998</v>
       </c>
       <c r="F408" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G408">
         <f t="shared" si="16"/>
         <v>1.6062654456809142</v>
       </c>
       <c r="H408" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J408" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K408" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L408" t="s">
         <v>58</v>
-      </c>
-      <c r="L408" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="409" spans="1:12" x14ac:dyDescent="0.2">
@@ -12311,23 +12314,23 @@
         <v>1999</v>
       </c>
       <c r="F409" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G409">
         <f t="shared" si="16"/>
         <v>1.5998922064513665</v>
       </c>
       <c r="H409" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J409" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K409" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L409" t="s">
         <v>58</v>
-      </c>
-      <c r="L409" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="410" spans="1:12" x14ac:dyDescent="0.2">
@@ -12349,23 +12352,23 @@
         <v>2000</v>
       </c>
       <c r="F410" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G410">
         <f t="shared" si="16"/>
         <v>1.5938163690116243</v>
       </c>
       <c r="H410" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J410" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K410" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L410" t="s">
         <v>58</v>
-      </c>
-      <c r="L410" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="411" spans="1:12" x14ac:dyDescent="0.2">
@@ -12387,23 +12390,23 @@
         <v>2001</v>
       </c>
       <c r="F411" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G411">
         <f t="shared" si="16"/>
         <v>1.5906754879369145</v>
       </c>
       <c r="H411" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J411" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K411" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L411" t="s">
         <v>58</v>
-      </c>
-      <c r="L411" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="412" spans="1:12" x14ac:dyDescent="0.2">
@@ -12425,23 +12428,23 @@
         <v>2002</v>
       </c>
       <c r="F412" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G412">
         <f t="shared" si="16"/>
         <v>1.587189549799211</v>
       </c>
       <c r="H412" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J412" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K412" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L412" t="s">
         <v>58</v>
-      </c>
-      <c r="L412" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="413" spans="1:12" x14ac:dyDescent="0.2">
@@ -12463,23 +12466,23 @@
         <v>2003</v>
       </c>
       <c r="F413" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G413">
         <f t="shared" si="16"/>
         <v>1.5834524958984122</v>
       </c>
       <c r="H413" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J413" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K413" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L413" t="s">
         <v>58</v>
-      </c>
-      <c r="L413" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="414" spans="1:12" x14ac:dyDescent="0.2">
@@ -12501,23 +12504,23 @@
         <v>2004</v>
       </c>
       <c r="F414" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G414">
         <f t="shared" si="16"/>
         <v>1.5795519905141138</v>
       </c>
       <c r="H414" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J414" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K414" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L414" t="s">
         <v>58</v>
-      </c>
-      <c r="L414" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="415" spans="1:12" x14ac:dyDescent="0.2">
@@ -12539,23 +12542,23 @@
         <v>2005</v>
       </c>
       <c r="F415" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G415">
         <f t="shared" si="16"/>
         <v>1.5742273401858171</v>
       </c>
       <c r="H415" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J415" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K415" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L415" t="s">
         <v>58</v>
-      </c>
-      <c r="L415" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="416" spans="1:12" x14ac:dyDescent="0.2">
@@ -12577,23 +12580,23 @@
         <v>2006</v>
       </c>
       <c r="F416" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G416">
         <f t="shared" si="16"/>
         <v>1.5770757432902991</v>
       </c>
       <c r="H416" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J416" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K416" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L416" t="s">
         <v>58</v>
-      </c>
-      <c r="L416" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="417" spans="1:12" x14ac:dyDescent="0.2">
@@ -12615,23 +12618,23 @@
         <v>2007</v>
       </c>
       <c r="F417" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G417">
         <f t="shared" si="16"/>
         <v>1.5810502599514888</v>
       </c>
       <c r="H417" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J417" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K417" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L417" t="s">
         <v>58</v>
-      </c>
-      <c r="L417" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="418" spans="1:12" x14ac:dyDescent="0.2">
@@ -12653,23 +12656,23 @@
         <v>2008</v>
       </c>
       <c r="F418" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G418">
         <f t="shared" si="16"/>
         <v>1.5868573677903355</v>
       </c>
       <c r="H418" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J418" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K418" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L418" t="s">
         <v>58</v>
-      </c>
-      <c r="L418" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="419" spans="1:12" x14ac:dyDescent="0.2">
@@ -12691,23 +12694,23 @@
         <v>2009</v>
       </c>
       <c r="F419" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G419">
         <f t="shared" si="16"/>
         <v>1.5941421065031705</v>
       </c>
       <c r="H419" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J419" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K419" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L419" t="s">
         <v>58</v>
-      </c>
-      <c r="L419" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="420" spans="1:12" x14ac:dyDescent="0.2">
@@ -12729,23 +12732,23 @@
         <v>2010</v>
       </c>
       <c r="F420" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G420">
         <f t="shared" si="16"/>
         <v>1.6027499464678339</v>
       </c>
       <c r="H420" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J420" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K420" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L420" t="s">
         <v>58</v>
-      </c>
-      <c r="L420" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="421" spans="1:12" x14ac:dyDescent="0.2">
@@ -12767,23 +12770,23 @@
         <v>2011</v>
       </c>
       <c r="F421" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G421">
         <f t="shared" si="16"/>
         <v>1.5952803755147054</v>
       </c>
       <c r="H421" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J421" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K421" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L421" t="s">
         <v>58</v>
-      </c>
-      <c r="L421" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="422" spans="1:12" x14ac:dyDescent="0.2">
@@ -12805,23 +12808,23 @@
         <v>2012</v>
       </c>
       <c r="F422" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G422">
         <f t="shared" si="16"/>
         <v>1.5881061022973417</v>
       </c>
       <c r="H422" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J422" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K422" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L422" t="s">
         <v>58</v>
-      </c>
-      <c r="L422" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="423" spans="1:12" x14ac:dyDescent="0.2">
@@ -12843,23 +12846,23 @@
         <v>2013</v>
       </c>
       <c r="F423" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G423">
         <f t="shared" si="16"/>
         <v>1.580437033556165</v>
       </c>
       <c r="H423" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J423" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K423" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L423" t="s">
         <v>58</v>
-      </c>
-      <c r="L423" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="424" spans="1:12" x14ac:dyDescent="0.2">
@@ -12881,23 +12884,23 @@
         <v>2014</v>
       </c>
       <c r="F424" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G424">
         <f t="shared" si="16"/>
         <v>1.5720933219641362</v>
       </c>
       <c r="H424" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J424" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K424" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L424" t="s">
         <v>58</v>
-      </c>
-      <c r="L424" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="425" spans="1:12" x14ac:dyDescent="0.2">
@@ -12919,23 +12922,23 @@
         <v>2015</v>
       </c>
       <c r="F425" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G425">
         <f t="shared" si="16"/>
         <v>1.5638595650126308</v>
       </c>
       <c r="H425" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J425" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K425" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L425" t="s">
         <v>58</v>
-      </c>
-      <c r="L425" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="426" spans="1:12" x14ac:dyDescent="0.2">
@@ -12957,23 +12960,23 @@
         <v>2016</v>
       </c>
       <c r="F426" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G426">
         <f t="shared" si="16"/>
         <v>1.5655707775003618</v>
       </c>
       <c r="H426" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J426" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K426" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L426" t="s">
         <v>58</v>
-      </c>
-      <c r="L426" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="427" spans="1:12" x14ac:dyDescent="0.2">
@@ -12995,23 +12998,23 @@
         <v>2017</v>
       </c>
       <c r="F427" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G427">
         <f t="shared" si="16"/>
         <v>1.5669067656006332</v>
       </c>
       <c r="H427" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J427" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K427" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L427" t="s">
         <v>58</v>
-      </c>
-      <c r="L427" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="428" spans="1:12" x14ac:dyDescent="0.2">
@@ -13033,23 +13036,23 @@
         <v>2018</v>
       </c>
       <c r="F428" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G428">
         <f t="shared" si="16"/>
         <v>1.5680560012794198</v>
       </c>
       <c r="H428" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J428" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K428" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L428" t="s">
         <v>58</v>
-      </c>
-      <c r="L428" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="429" spans="1:12" x14ac:dyDescent="0.2">
@@ -13071,23 +13074,23 @@
         <v>2019</v>
       </c>
       <c r="F429" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G429">
         <f t="shared" si="16"/>
         <v>1.56899278989477</v>
       </c>
       <c r="H429" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J429" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K429" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L429" t="s">
         <v>58</v>
-      </c>
-      <c r="L429" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="430" spans="1:12" x14ac:dyDescent="0.2">
@@ -13109,23 +13112,23 @@
         <v>2020</v>
       </c>
       <c r="F430" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G430">
         <f t="shared" si="16"/>
         <v>1.5830542936008962</v>
       </c>
       <c r="H430" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J430" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K430" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L430" t="s">
         <v>58</v>
-      </c>
-      <c r="L430" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="431" spans="1:12" x14ac:dyDescent="0.2">
@@ -13147,38 +13150,41 @@
         <v>2021</v>
       </c>
       <c r="F431" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G431">
         <f t="shared" si="16"/>
         <v>1.5781479220274037</v>
       </c>
       <c r="H431" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J431" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K431" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L431" t="s">
         <v>58</v>
-      </c>
-      <c r="L431" t="s">
-        <v>62</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A5:L847" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="3" type="noConversion"/>
+  <conditionalFormatting sqref="J14:L14">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"TODO"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="K14" r:id="rId1" xr:uid="{D11E7F0F-E127-5643-8C05-AF28547E6E27}"/>
-    <hyperlink ref="K15" r:id="rId2" xr:uid="{AB382EBD-FD85-A94C-A2D5-AE3D74C6342F}"/>
-    <hyperlink ref="K368" r:id="rId3" xr:uid="{E0535359-E762-5E4F-9EF4-8DAD7165E39B}"/>
-    <hyperlink ref="K369:K431" r:id="rId4" display="https://www.bfs.admin.ch/bfs/fr/home/statistiques/mobilite-transports/transport-personnes/prestations.assetdetail.23725823.html" xr:uid="{68BAF866-93A1-6F40-AA85-EFFA516FB53B}"/>
-    <hyperlink ref="K63" r:id="rId5" xr:uid="{57AB3A29-B7EE-E947-B9C6-AC202A168188}"/>
-    <hyperlink ref="K48:K62" r:id="rId6" display="https://opendata.swiss/en/dataset/bestand-der-personenwagen-nach-technischen-merkmalen-ab-20052" xr:uid="{2359E783-4D2C-8F4A-A467-29657ABB57EB}"/>
-    <hyperlink ref="K64:K79" r:id="rId7" display="https://opendata.swiss/en/dataset/bestand-der-personenwagen-nach-technischen-merkmalen-ab-20052" xr:uid="{0289099E-436D-CD44-8E73-16472E7870FA}"/>
-    <hyperlink ref="K82:K111" r:id="rId8" display="https://opendata.swiss/en/dataset/neue-inverkehrsetzungen-von-strassenfahrzeugen-nach-fahrzeuggruppe-und-fahrzeugart2/resource/48e8a4f2-19ee-498d-ad6f-316180b0940b" xr:uid="{85D40114-E1AF-3E41-AE4C-31D352EA8EA0}"/>
-    <hyperlink ref="K203" r:id="rId9" xr:uid="{2D1CA2C2-1D8E-7142-AE89-9A79D0C27DE6}"/>
+    <hyperlink ref="K368" r:id="rId1" xr:uid="{E0535359-E762-5E4F-9EF4-8DAD7165E39B}"/>
+    <hyperlink ref="K369:K431" r:id="rId2" display="https://www.bfs.admin.ch/bfs/fr/home/statistiques/mobilite-transports/transport-personnes/prestations.assetdetail.23725823.html" xr:uid="{68BAF866-93A1-6F40-AA85-EFFA516FB53B}"/>
+    <hyperlink ref="K63" r:id="rId3" xr:uid="{57AB3A29-B7EE-E947-B9C6-AC202A168188}"/>
+    <hyperlink ref="K48:K62" r:id="rId4" display="https://opendata.swiss/en/dataset/bestand-der-personenwagen-nach-technischen-merkmalen-ab-20052" xr:uid="{2359E783-4D2C-8F4A-A467-29657ABB57EB}"/>
+    <hyperlink ref="K64:K79" r:id="rId5" display="https://opendata.swiss/en/dataset/bestand-der-personenwagen-nach-technischen-merkmalen-ab-20052" xr:uid="{0289099E-436D-CD44-8E73-16472E7870FA}"/>
+    <hyperlink ref="K82:K111" r:id="rId6" display="https://opendata.swiss/en/dataset/neue-inverkehrsetzungen-von-strassenfahrzeugen-nach-fahrzeuggruppe-und-fahrzeugart2/resource/48e8a4f2-19ee-498d-ad6f-316180b0940b" xr:uid="{85D40114-E1AF-3E41-AE4C-31D352EA8EA0}"/>
+    <hyperlink ref="K203" r:id="rId7" xr:uid="{2D1CA2C2-1D8E-7142-AE89-9A79D0C27DE6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
